--- a/EVDS/residents_foreign_direct_investments_abroad_by_countries_V.xlsx
+++ b/EVDS/residents_foreign_direct_investments_abroad_by_countries_V.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mine Kara\Documents\GitHub\mef05-MineKara95\EVDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E480145-C61A-4A88-A219-A833F48C2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A581032-09FA-436C-A214-B7E45DCDA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,448 +34,448 @@
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">EUROPE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">France </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFTA COUNTRIES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER EUROPEAN COUNTRIES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibraltar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guernsey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova, Republic of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFRICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORTH AFRICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER AFRICAN COUNTRIES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivory Coast </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania, United Republic of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMERICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORTH AMERICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRAL AMERICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayman Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curaçao </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands Antilles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks and Caicos Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands, United States </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands, British </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTH AMERICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEAR AND MIDDLE EAST COUNTRIES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GULF ARABIAN COUNTRIES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER NEAR AND MIDDLE EAST COUNTRIES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER ASIAN COUNTRIES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">China </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Korea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">India </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCENIA AND POLAR REGIONS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territory of the French Southern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNCLASSIFIED </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL WORLD </t>
+    <t>EUROPE</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>CzechRepublic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>EFTACOUNTRIES</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>OTHEREUROPEANCOUNTRIES</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>BosniaandHerzegovina</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>ManIslands</t>
+  </si>
+  <si>
+    <t>Moldova,Republicof</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>AFRICA</t>
+  </si>
+  <si>
+    <t>NORTHAFRICA</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>OTHERAFRICANCOUNTRIES</t>
+  </si>
+  <si>
+    <t>BurkinaFaso</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>IvoryCoast</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>SouthAfrica</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Tanzania,UnitedRepublicof</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>AMERICA</t>
+  </si>
+  <si>
+    <t>NORTHAMERICA</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CENTRALAMERICA</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>CaymanIslands</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>NetherlandsAntilles</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>TrinidadandTobago</t>
+  </si>
+  <si>
+    <t>TurksandCaicosIslands</t>
+  </si>
+  <si>
+    <t>VirginIslands,UnitedStates</t>
+  </si>
+  <si>
+    <t>VirginIslands,British</t>
+  </si>
+  <si>
+    <t>SOUTHAMERICA</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>ASIA</t>
+  </si>
+  <si>
+    <t>NEARANDMIDDLEEASTCOUNTRIES</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>GULFARABIANCOUNTRIES</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>UnitedArabEmirates</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>SaudiArabia</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>OTHERNEARANDMIDDLEEASTCOUNTRIES</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>OTHERASIANCOUNTRIES</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>SouthKorea</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>HongKong</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>OCENIAANDPOLARREGIONS</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>TerritoryoftheFrenchSouthern</t>
+  </si>
+  <si>
+    <t>MarshallIslands</t>
+  </si>
+  <si>
+    <t>NewZealand</t>
+  </si>
+  <si>
+    <t>UNCLASSIFIED</t>
+  </si>
+  <si>
+    <t>TOTALWORLD</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -519,10 +519,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +831,7 @@
   <dimension ref="A1:ES21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,415 +884,415 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="ED1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="2" t="s">
+      <c r="EE1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="2" t="s">
+      <c r="EF1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="2" t="s">
+      <c r="EG1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="2" t="s">
+      <c r="EH1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="2" t="s">
+      <c r="EI1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="2" t="s">
+      <c r="EJ1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2" t="s">
+      <c r="EK1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="2" t="s">
+      <c r="EL1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="EL1" s="2" t="s">
+      <c r="EM1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="EM1" s="2" t="s">
+      <c r="EN1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="EN1" s="2" t="s">
+      <c r="EO1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="EO1" s="2" t="s">
+      <c r="EP1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="EP1" s="2" t="s">
+      <c r="EQ1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2" t="s">
+      <c r="ER1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="ER1" s="2" t="s">
+      <c r="ES1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="ES1" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:149" x14ac:dyDescent="0.3">
